--- a/src/main/resources/examples/堆场风蚀扬尘源.xlsx
+++ b/src/main/resources/examples/堆场风蚀扬尘源.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29d1961e783089/修改后模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxiaoyu/OneDrive/修改后模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_1A8CD14F8145FC8D10778F9F409C5AE82DA79BDD" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E2B3F27-9B8B-48CA-8B3F-BA24B4D275EB}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_1A8CD14F8145FC8D10778F9F409C5AE82DA79BDD" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4C66A80-CEF9-8C49-8DB4-527CC8D24DBD}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="风蚀" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>年份</t>
   </si>
@@ -155,34 +155,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>PM10的最大控制率（%）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25的最大控制率（%）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO的最大控制率（%）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOC的最大控制率（%）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO2 的最大控制率（%）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOX的最大控制率（%）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3的最大控制率（%）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>PM10排放量</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -253,53 +225,48 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>OC的最大控制率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC的最大控制率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10的最大控制率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25的最大控制率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO的最大控制率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC的最大控制率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2 的最大控制率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX的最大控制率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3的最大控制率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -311,7 +278,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -505,6 +472,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -854,40 +830,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:AF8"/>
+      <selection pane="bottomLeft" activeCell="AL8" sqref="AL8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.62890625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.47265625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.47265625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="39.9453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1015625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1015625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.41796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.3671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.47265625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.26171875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="19.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.62890625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9" style="1"/>
-    <col min="20" max="24" width="12.734375" style="4" customWidth="1"/>
-    <col min="25" max="32" width="9" style="1"/>
-    <col min="33" max="33" width="29.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="34" width="9" style="1"/>
+    <col min="35" max="36" width="9.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="15">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -922,10 +906,10 @@
         <v>3</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>5</v>
@@ -934,7 +918,7 @@
         <v>6</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>7</v>
@@ -942,53 +926,65 @@
       <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="AD1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="AF1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="AG1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AH1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AI1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG1" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:37" ht="14" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1037,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S2" s="21">
         <v>0</v>
@@ -1085,11 +1081,23 @@
       <c r="AF2" s="21">
         <v>0</v>
       </c>
-      <c r="AG2" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG2" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="14" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -1142,7 +1150,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S3" s="21">
         <v>0</v>
@@ -1186,11 +1194,23 @@
       <c r="AF3" s="21">
         <v>0</v>
       </c>
-      <c r="AG3" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG3" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="14" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
@@ -1243,7 +1263,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S4" s="21">
         <v>0</v>
@@ -1287,11 +1307,23 @@
       <c r="AF4" s="21">
         <v>0</v>
       </c>
-      <c r="AG4" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="14" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1344,7 +1376,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S5" s="21">
         <v>0</v>
@@ -1388,11 +1420,23 @@
       <c r="AF5" s="21">
         <v>0</v>
       </c>
-      <c r="AG5" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="14" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1445,7 +1489,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="R6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S6" s="21">
         <v>0</v>
@@ -1468,10 +1512,10 @@
       <c r="Y6" s="21">
         <v>0</v>
       </c>
-      <c r="Z6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="21">
+      <c r="Z6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="30">
         <v>0</v>
       </c>
       <c r="AB6" s="21">
@@ -1489,11 +1533,23 @@
       <c r="AF6" s="21">
         <v>0</v>
       </c>
-      <c r="AG6" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="14" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1546,7 +1602,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="R7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S7" s="21">
         <v>0</v>
@@ -1590,132 +1646,120 @@
       <c r="AF7" s="21">
         <v>0</v>
       </c>
-      <c r="AG7" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="1">
-        <v>6</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>62</v>
+      <c r="AG7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="E8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="L8" s="1">
+        <v>11</v>
       </c>
       <c r="M8" s="1">
-        <v>7</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>63</v>
+        <v>12</v>
+      </c>
+      <c r="N8" s="1">
+        <v>13</v>
       </c>
       <c r="O8" s="1">
-        <v>8</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>64</v>
+        <v>14</v>
+      </c>
+      <c r="P8" s="1">
+        <v>15</v>
       </c>
       <c r="Q8" s="1">
-        <v>9</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>65</v>
+        <v>16</v>
+      </c>
+      <c r="R8" s="1">
+        <v>17</v>
       </c>
       <c r="S8" s="1">
-        <v>10</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>66</v>
+        <v>18</v>
+      </c>
+      <c r="T8" s="1">
+        <v>19</v>
       </c>
       <c r="U8" s="1">
-        <v>11</v>
-      </c>
-      <c r="V8" s="31" t="s">
-        <v>67</v>
+        <v>20</v>
+      </c>
+      <c r="V8" s="1">
+        <v>21</v>
       </c>
       <c r="W8" s="1">
-        <v>12</v>
-      </c>
-      <c r="X8" s="31" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="X8" s="1">
+        <v>23</v>
       </c>
       <c r="Y8" s="1">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="31" t="s">
-        <v>69</v>
+        <v>24</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>25</v>
       </c>
       <c r="AA8" s="1">
-        <v>14</v>
-      </c>
-      <c r="AB8" s="31" t="s">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>27</v>
       </c>
       <c r="AC8" s="1">
-        <v>15</v>
-      </c>
-      <c r="AD8" s="31" t="s">
-        <v>71</v>
+        <v>28</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>29</v>
       </c>
       <c r="AE8" s="1">
-        <v>16</v>
-      </c>
-      <c r="AF8" s="31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="E9" s="22"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:37">
       <c r="E10" s="22"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="E11" s="22"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="E12" s="22"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+    <row r="12" spans="1:37">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1727,383 +1771,383 @@
       <selection sqref="A1:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
